--- a/data/trans_dic/IP41-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP41-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,73; 95,07</t>
+          <t>87,24; 95,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,92; 94,35</t>
+          <t>86,91; 94,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,87; 92,19</t>
+          <t>82,75; 92,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,85; 97,55</t>
+          <t>90,29; 97,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,16; 96,74</t>
+          <t>90,01; 96,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>83,76; 92,69</t>
+          <t>83,74; 92,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>90,05; 95,5</t>
+          <t>90,24; 95,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>89,85; 94,79</t>
+          <t>90,01; 94,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>84,97; 91,43</t>
+          <t>85,13; 91,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,29; 95,34</t>
+          <t>89,99; 95,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,09; 92,21</t>
+          <t>85,77; 92,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,46; 87,16</t>
+          <t>79,26; 87,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,43; 93,28</t>
+          <t>87,08; 93,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,86; 90,99</t>
+          <t>83,43; 90,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>82,62; 90,03</t>
+          <t>82,44; 90,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,64; 93,56</t>
+          <t>89,79; 93,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>86,07; 90,85</t>
+          <t>85,87; 90,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>81,72; 87,24</t>
+          <t>81,98; 87,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,97; 95,38</t>
+          <t>87,8; 95,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,16; 92,77</t>
+          <t>83,38; 92,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>76,31; 85,99</t>
+          <t>76,69; 86,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>79,01; 89,8</t>
+          <t>79,46; 89,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,65; 92,06</t>
+          <t>83,72; 91,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,11; 84,25</t>
+          <t>74,25; 84,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>85,65; 92,07</t>
+          <t>85,32; 91,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>85,16; 91,21</t>
+          <t>85,28; 91,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>76,82; 83,8</t>
+          <t>77,02; 83,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,07; 94,58</t>
+          <t>88,54; 94,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,59; 88,53</t>
+          <t>78,88; 87,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,18; 88,1</t>
+          <t>78,04; 88,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,6; 95,64</t>
+          <t>89,95; 95,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,47; 91,42</t>
+          <t>83,73; 91,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,05; 87,19</t>
+          <t>77,91; 87,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,3; 94,63</t>
+          <t>90,19; 94,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82,61; 88,5</t>
+          <t>82,94; 88,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79,65; 86,21</t>
+          <t>79,62; 86,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,62; 93,83</t>
+          <t>90,63; 93,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,31; 89,96</t>
+          <t>86,25; 90,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,11; 85,78</t>
+          <t>81,55; 85,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,01; 92,79</t>
+          <t>89,01; 92,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,29; 91,1</t>
+          <t>87,16; 91,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,96; 86,34</t>
+          <t>81,91; 86,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,51; 92,87</t>
+          <t>90,49; 92,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>87,5; 90,07</t>
+          <t>87,36; 89,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>82,37; 85,51</t>
+          <t>82,46; 85,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">

--- a/data/trans_dic/IP41-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP41-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,37 +656,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>94,97%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>94,04%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>88,69%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>91,78%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>91,23%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>88,09%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>94,97%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>94,04%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>88,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -724,57 +724,57 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,24; 95,51</t>
+          <t>90,79; 97,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,91; 94,49</t>
+          <t>90,35; 96,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,75; 92,38</t>
+          <t>83,9; 92,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0; 1,74</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>87,19; 95,11</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>86,36; 94,52</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>82,28; 91,99</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,64</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>90,29; 97,6</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>90,01; 96,77</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>83,74; 92,47</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,74</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>90,24; 95,7</t>
+          <t>90,26; 95,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>90,01; 94,8</t>
+          <t>89,96; 94,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>85,13; 91,34</t>
+          <t>84,9; 91,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -796,37 +796,37 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>90,72%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>87,78%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>86,62%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>92,98%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>89,36%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>83,27%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>90,72%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>87,78%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>86,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -864,57 +864,57 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,99; 95,09</t>
+          <t>87,67; 93,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,77; 92,11</t>
+          <t>83,9; 90,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,26; 87,23</t>
+          <t>82,41; 90,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,74</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>90,15; 95,3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>85,75; 92,54</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>79,08; 86,93</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,69</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>87,08; 93,39</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>83,43; 90,68</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>82,44; 90,06</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,74</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,79; 93,77</t>
+          <t>89,75; 93,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>85,87; 90,66</t>
+          <t>86,13; 90,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>81,98; 87,18</t>
+          <t>81,76; 87,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -936,37 +936,37 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>85,34%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>88,11%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>79,41%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>92,27%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>88,76%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>81,62%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>85,34%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>88,11%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>79,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1004,57 +1004,57 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,8; 95,25</t>
+          <t>80,0; 90,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,38; 92,19</t>
+          <t>83,44; 91,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>76,69; 86,12</t>
+          <t>73,69; 84,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0; 0,82</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>87,67; 95,34</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>83,85; 92,27</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>76,09; 85,71</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,79</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>79,46; 89,55</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>83,72; 91,99</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>74,25; 84,01</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,82</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>85,32; 91,84</t>
+          <t>85,38; 92,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>85,28; 91,04</t>
+          <t>85,23; 91,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>77,02; 83,5</t>
+          <t>76,88; 83,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1076,37 +1076,37 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>93,24%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>87,88%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>83,02%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>92,08%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>83,87%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>83,68%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>93,24%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>87,88%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>83,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,54; 94,67</t>
+          <t>89,72; 95,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,88; 87,81</t>
+          <t>83,05; 91,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,04; 88,25</t>
+          <t>78,22; 87,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,95; 95,7</t>
+          <t>88,73; 94,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,73; 91,92</t>
+          <t>78,9; 87,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,91; 87,3</t>
+          <t>77,95; 87,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,19; 94,72</t>
+          <t>90,3; 94,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82,94; 88,77</t>
+          <t>82,71; 88,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79,62; 86,51</t>
+          <t>79,38; 86,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1216,37 +1216,37 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>91,09%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>89,17%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>84,19%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>92,38%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>88,28%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>83,76%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>91,09%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>89,17%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>84,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,63; 93,83</t>
+          <t>89,21; 92,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,25; 90,13</t>
+          <t>87,23; 91,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,55; 85,94</t>
+          <t>81,72; 86,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,01; 92,74</t>
+          <t>90,57; 93,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,16; 91,04</t>
+          <t>86,16; 90,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,91; 86,39</t>
+          <t>81,43; 85,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,49; 92,83</t>
+          <t>90,55; 92,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>87,36; 89,98</t>
+          <t>87,33; 89,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>82,46; 85,55</t>
+          <t>82,22; 85,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
